--- a/NykaaAssignment/src/test/resources/nykaa.xlsx
+++ b/NykaaAssignment/src/test/resources/nykaa.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E182FE08-1ECC-437C-8AF8-BCB66256AF91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA891528-E449-43ED-8B88-5E5152F0D21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20760" windowHeight="11820" xr2:uid="{885B6FA2-7190-45E9-A32C-0F5405F1BC96}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{885B6FA2-7190-45E9-A32C-0F5405F1BC96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:K17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,19 +22,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>M.A.C</t>
   </si>
+  <si>
+    <t>suganthini.ramu07@gmail.com</t>
+  </si>
+  <si>
+    <t>vairamramu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -56,13 +77,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,16 +403,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B29E7C-0669-431E-AA27-BB3494C1A3F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E9B5BF-1E33-4185-B7E5-9FC8A8FFE8BB}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{E5FF3196-828C-474B-AE1B-D091F9BD8914}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NykaaAssignment/src/test/resources/nykaa.xlsx
+++ b/NykaaAssignment/src/test/resources/nykaa.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CA891528-E449-43ED-8B88-5E5152F0D21F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E0BBBE85-F289-4EA9-A2DE-60C10738CB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{885B6FA2-7190-45E9-A32C-0F5405F1BC96}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20790" windowHeight="11820" firstSheet="1" activeTab="3" xr2:uid="{885B6FA2-7190-45E9-A32C-0F5405F1BC96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignment3" sheetId="3" r:id="rId3"/>
+    <sheet name="MyList" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:K17"/>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>M.A.C</t>
   </si>
@@ -31,6 +33,24 @@
   </si>
   <si>
     <t>vairamramu</t>
+  </si>
+  <si>
+    <t>Lakme</t>
+  </si>
+  <si>
+    <t>4 stars</t>
+  </si>
+  <si>
+    <t>Lakme Absolute Matte Melt Liquid Lip Color</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>Philips</t>
+  </si>
+  <si>
+    <t>Philips Beard Trimmer BT3101/15</t>
   </si>
 </sst>
 </file>
@@ -424,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E9B5BF-1E33-4185-B7E5-9FC8A8FFE8BB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -448,4 +468,74 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C56EEFA5-7465-46D3-A95C-2EA1424A91DC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D1743B-F255-4C1D-B9A0-77894F539B79}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>